--- a/Resolutions.xlsx
+++ b/Resolutions.xlsx
@@ -62,13 +62,13 @@
     <t>https://theradome.com</t>
   </si>
   <si>
-    <t>figd_aUyGr7k95RVLMs8360g9l1S4-xt6HLs26XV6MB0t</t>
+    <t>figd_EkI6Fj-YG3vPrRHyXT3L0hx6tyUOB8ypCLaHWIIm</t>
   </si>
   <si>
     <t>hritOi8jFNn2Zvf6ilrZwB</t>
   </si>
   <si>
-    <t>1202-3193</t>
+    <t>2127-25780</t>
   </si>
   <si>
     <t>Tablet</t>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5714285714286" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="6"/>

--- a/Resolutions.xlsx
+++ b/Resolutions.xlsx
@@ -56,7 +56,7 @@
     <t>Desktop</t>
   </si>
   <si>
-    <t>Desktop_1440_Theradome</t>
+    <t>Desktop_1440_Theradome.png</t>
   </si>
   <si>
     <t>https://theradome.com</t>
@@ -74,7 +74,7 @@
     <t>Tablet</t>
   </si>
   <si>
-    <t>Tablet_768_Theradome</t>
+    <t>Tablet_768_Theradome.png</t>
   </si>
 </sst>
 </file>
@@ -1018,14 +1018,14 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5714285714286" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="4.42857142857143" customWidth="1"/>
     <col min="2" max="2" width="8.28571428571429" customWidth="1"/>
-    <col min="3" max="3" width="26.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="33.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="57.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="52.4285714285714" customWidth="1"/>
     <col min="6" max="6" width="40.5714285714286" customWidth="1"/>

--- a/Resolutions.xlsx
+++ b/Resolutions.xlsx
@@ -50,25 +50,25 @@
     <t>Figma Node Id</t>
   </si>
   <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>Desktop_1440_Theradome.png</t>
+  </si>
+  <si>
+    <t>https://theradome.com</t>
+  </si>
+  <si>
+    <t>figd_EkI6Fj-YG3vPrRHyXT3L0hx6tyUOB8ypCLaHWIIm</t>
+  </si>
+  <si>
+    <t>hritOi8jFNn2Zvf6ilrZwB</t>
+  </si>
+  <si>
+    <t>2127-25780</t>
+  </si>
+  <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>Desktop</t>
-  </si>
-  <si>
-    <t>Desktop_1440_Theradome.png</t>
-  </si>
-  <si>
-    <t>https://theradome.com</t>
-  </si>
-  <si>
-    <t>figd_EkI6Fj-YG3vPrRHyXT3L0hx6tyUOB8ypCLaHWIIm</t>
-  </si>
-  <si>
-    <t>hritOi8jFNn2Zvf6ilrZwB</t>
-  </si>
-  <si>
-    <t>2127-25780</t>
   </si>
   <si>
     <t>Tablet</t>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5714285714286" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1054,30 +1054,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" spans="2:7">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="2:7">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -1085,16 +1085,16 @@
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
